--- a/lab6/lab6.xlsx
+++ b/lab6/lab6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8595" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Функциональное тестирование" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="109">
   <si>
     <t>Шаги</t>
   </si>
@@ -96,12 +96,6 @@
     <t>Тест-кейс 2 (Ввод отрицательного количества)</t>
   </si>
   <si>
-    <t>2) Вводим в количество товаров -1</t>
-  </si>
-  <si>
-    <t>Поле загорается красным цветом, кнопка Add To Cart не кликабельна</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1) Начальная страница </t>
     </r>
@@ -215,12 +209,6 @@
   </si>
   <si>
     <t>2) В поле Login вводим Login</t>
-  </si>
-  <si>
-    <t>3) В поле Password вводим Password1</t>
-  </si>
-  <si>
-    <t>Открывается странциа входа</t>
   </si>
   <si>
     <t>Поле должно загорется зеленым цветом</t>
@@ -263,9 +251,6 @@
     </r>
   </si>
   <si>
-    <t>Сайт должен открыться, все картинки прогрузиться, верстка должна отображаться корректно, горизонтального ползунка появляться не должно, все шрифты должны работать, все кнопки выделяться, нажиматься.</t>
-  </si>
-  <si>
     <t>3) Конфигурационное тестирование</t>
   </si>
   <si>
@@ -384,6 +369,27 @@
   </si>
   <si>
     <t>1) Начальная страница http://91.210.252.240:9000/product/royal-london-20034-02</t>
+  </si>
+  <si>
+    <t>2) В Login вводим example</t>
+  </si>
+  <si>
+    <t>В поле отображается example</t>
+  </si>
+  <si>
+    <t>Сайт должен открыться, должно быть корректное отображение верстки, шрифты и картинки должны прогрузиться, все кнопки должны нажиматься\выделяться</t>
+  </si>
+  <si>
+    <t>В поле отображается Login</t>
+  </si>
+  <si>
+    <t>2) Вводим в количество товаров -50</t>
+  </si>
+  <si>
+    <t>Поле должно загореться красным цветом, кнопку "ADD TO CARD" нельзя нажать</t>
+  </si>
+  <si>
+    <t>3) В поле Password вводим example</t>
   </si>
 </sst>
 </file>
@@ -524,7 +530,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -793,19 +799,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FFC5C2C2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1023,7 +1016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1049,9 +1042,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1070,9 +1060,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1084,25 +1071,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1111,50 +1086,44 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1163,13 +1132,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1177,62 +1146,83 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1452,60 +1442,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="56.5703125" customWidth="1"/>
+    <col min="1" max="1" width="52.5703125" customWidth="1"/>
     <col min="2" max="2" width="85.140625" customWidth="1"/>
     <col min="3" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:3" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75">
-      <c r="A4" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>5</v>
+      <c r="A4" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>80</v>
+      <c r="B5" s="38" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1513,154 +1503,154 @@
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="15">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="41"/>
     </row>
     <row r="9" spans="1:3" ht="12.75">
-      <c r="A9" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="44" t="s">
+      <c r="A9" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75">
-      <c r="A10" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="42" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.75">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="51" t="s">
-        <v>26</v>
+      <c r="B11" s="43" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
-      <c r="A12" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="45" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="33" customHeight="1">
-      <c r="A13" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>77</v>
+      <c r="A13" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>72</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" ht="12.75"/>
     <row r="15" spans="1:3" ht="12.75">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="49"/>
+    </row>
+    <row r="16" spans="1:3" ht="12.75">
+      <c r="A16" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="12.75">
+      <c r="A17" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="25.5">
+      <c r="A18" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="12.75">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+    </row>
+    <row r="20" spans="1:2" ht="15">
+      <c r="A20" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="54"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A21" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A22" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A23" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A24" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A25" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A26" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="57"/>
-    </row>
-    <row r="16" spans="1:3" ht="12.75">
-      <c r="A16" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="12.75">
-      <c r="A17" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="25.5">
-      <c r="A18" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="12.75">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-    </row>
-    <row r="20" spans="1:2" ht="15">
-      <c r="A20" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="62"/>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A21" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A22" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A23" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A24" s="64" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A27" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A25" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="57" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2459,13 +2449,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" customWidth="1"/>
+    <col min="1" max="1" width="69.28515625" customWidth="1"/>
     <col min="2" max="2" width="62.5703125" customWidth="1"/>
     <col min="3" max="6" width="8.7109375" customWidth="1"/>
   </cols>
@@ -2474,21 +2464,21 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:3" ht="12.75">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="27" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2496,55 +2486,55 @@
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>5</v>
+      <c r="B4" s="21" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75">
       <c r="A6" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75">
-      <c r="A7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>64</v>
+      <c r="A7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75">
       <c r="A8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>85</v>
+        <v>79</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75">
       <c r="A9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2553,104 +2543,104 @@
       <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="15">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:3" ht="12.75">
       <c r="A13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:3" ht="25.5">
+      <c r="A14" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" spans="1:3" ht="12.75">
-      <c r="A14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="16"/>
+      <c r="B14" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:3" ht="12.75">
-      <c r="A15" s="13"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:3" ht="12.75">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="92"/>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75">
+      <c r="A17" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75">
+      <c r="A18" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" ht="12.75">
-      <c r="A17" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" ht="12.75">
-      <c r="A18" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="16"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:6" ht="12.75">
-      <c r="A19" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="16"/>
+      <c r="A19" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A20" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="16"/>
+      <c r="A20" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:6" ht="12.75">
-      <c r="A21" s="16"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="15"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
@@ -3465,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3479,128 +3469,128 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="34"/>
+    </row>
+    <row r="3" spans="1:2" ht="61.5" customHeight="1">
+      <c r="A3" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="54.75" customHeight="1">
+      <c r="A4" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="38.25">
+      <c r="A5" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="58"/>
+    </row>
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="38.25">
+      <c r="A10" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15">
+      <c r="A12" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="58"/>
+    </row>
+    <row r="13" spans="1:2" ht="15">
+      <c r="A13" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="42"/>
-    </row>
-    <row r="3" spans="1:2" ht="61.5" customHeight="1">
-      <c r="A3" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="67" t="s">
+      <c r="B13" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="38.25">
+      <c r="A15" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="30" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="54.75" customHeight="1">
-      <c r="A4" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="51">
-      <c r="A5" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15">
-      <c r="A7" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="66"/>
-    </row>
-    <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="67" t="s">
+      <c r="B17" s="58"/>
+    </row>
+    <row r="18" spans="1:2" ht="15">
+      <c r="A18" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="60" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="68" t="s">
+      <c r="B19" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="51">
-      <c r="A10" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15">
-      <c r="A12" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="66"/>
-    </row>
-    <row r="13" spans="1:2" ht="15">
-      <c r="A13" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="51">
-      <c r="A15" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15">
-      <c r="A17" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="66"/>
-    </row>
-    <row r="18" spans="1:2" ht="15">
-      <c r="A18" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="51">
-      <c r="A20" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="71" t="s">
-        <v>66</v>
+    </row>
+    <row r="20" spans="1:2" ht="38.25">
+      <c r="A20" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3618,8 +3608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3633,133 +3623,133 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:4">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="90.75" thickBot="1">
+      <c r="B3" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C3" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="92" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="90.75" thickBot="1">
-      <c r="B3" s="77" t="s">
+      <c r="D3" s="83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="75.75" thickBot="1">
+      <c r="B4" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C4" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="93" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="75.75" thickBot="1">
-      <c r="B4" s="79" t="s">
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15" customHeight="1">
+      <c r="B6" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15">
+      <c r="B7" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="52.5" customHeight="1" thickBot="1">
+      <c r="B8" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="85"/>
+      <c r="D8" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="80" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="81" t="s">
+      <c r="C9" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="30.75" thickBot="1">
+      <c r="B10" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="15" customHeight="1">
-      <c r="B6" s="82" t="s">
+      <c r="C10" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="30">
+      <c r="B11" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="15">
-      <c r="B7" s="82" t="s">
+      <c r="C11" s="79" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15">
+      <c r="B12" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" thickBot="1">
+      <c r="B13" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="82" t="s">
+      <c r="C13" s="81" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="52.5" customHeight="1" thickBot="1">
-      <c r="B8" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="82" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="30.75" thickBot="1">
-      <c r="B10" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="85" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="30">
-      <c r="B11" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="89" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15">
-      <c r="B12" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="90" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" thickBot="1">
-      <c r="B13" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="91" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="14" spans="2:4" ht="12.75">
-      <c r="D14" s="17"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="2:4" ht="12.75">
-      <c r="D15" s="17"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="2:4" ht="12.75"/>
     <row r="17" spans="4:4" ht="12.75"/>
     <row r="18" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D18" s="16"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="221" ht="12.75"/>
     <row r="222" ht="12.75"/>

--- a/lab6/lab6.xlsx
+++ b/lab6/lab6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="Функциональное тестирование" sheetId="3" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>Ожидаемые результаты</t>
   </si>
   <si>
-    <t>Тест-кейс 1 (Проверка входа в аккаунт)</t>
-  </si>
-  <si>
     <t>Форма для авторизации</t>
   </si>
   <si>
@@ -82,6 +79,8 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>http://91.210.252.240:9000/cart/view</t>
     </r>
@@ -105,6 +104,8 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>http://91.210.252.240:9000/user/login</t>
     </r>
@@ -119,6 +120,8 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>http://91.210.252.240:9000/</t>
     </r>
@@ -281,12 +284,6 @@
     <t>Test Environments</t>
   </si>
   <si>
-    <t>Выводится корзина с выбранным товаром, а так же товаром добавленным до этого, сумма заказа - это сумма цен обоих товаров</t>
-  </si>
-  <si>
-    <t>Тест-кейс 3 (Удаляем товар из корзины)</t>
-  </si>
-  <si>
     <t>Тест-кейс 4 (Оформить заказ)</t>
   </si>
   <si>
@@ -390,6 +387,15 @@
   </si>
   <si>
     <t>3) В поле Password вводим example</t>
+  </si>
+  <si>
+    <t>Тест-кейс 1 (Проверка входа в аккаунт, при условии, что login example и password существует в системе)</t>
+  </si>
+  <si>
+    <t>Тест-кейс 3 (Удаляем товар из корзины, товар в корзину уже добавлен)</t>
+  </si>
+  <si>
+    <t>Выводится корзина с выбранным товаром, цена товара в корзине должна соответствовать цене при заказе товара, количество товара должно соответствовать 1</t>
   </si>
 </sst>
 </file>
@@ -407,18 +413,24 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -429,33 +441,45 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1016,7 +1040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1109,7 +1133,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1197,32 +1220,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1442,13 +1471,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" customWidth="1"/>
     <col min="2" max="2" width="85.140625" customWidth="1"/>
     <col min="3" max="6" width="8.7109375" customWidth="1"/>
   </cols>
@@ -1461,42 +1490,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="32" t="s">
-        <v>2</v>
+    <row r="2" spans="1:3" ht="25.5">
+      <c r="A2" s="92" t="s">
+        <v>106</v>
       </c>
       <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:3" ht="12.75">
       <c r="A3" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75">
       <c r="A4" s="37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75">
       <c r="A5" s="37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75">
       <c r="A6" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1504,80 +1533,80 @@
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="A8" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="41"/>
     </row>
     <row r="9" spans="1:3" ht="12.75">
       <c r="A9" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75">
       <c r="A10" s="37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.75">
       <c r="A11" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="33" customHeight="1">
       <c r="A13" s="46" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" ht="12.75"/>
-    <row r="15" spans="1:3" ht="12.75">
-      <c r="A15" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="49"/>
+    <row r="15" spans="1:3" ht="25.5">
+      <c r="A15" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="48"/>
     </row>
     <row r="16" spans="1:3" ht="12.75">
-      <c r="A16" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>56</v>
+      <c r="A16" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12.75">
       <c r="A17" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="25.5">
-      <c r="A18" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>86</v>
+      <c r="A18" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12.75">
@@ -1586,72 +1615,72 @@
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="54"/>
+        <v>71</v>
+      </c>
+      <c r="B20" s="53"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
       <c r="A22" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="42" t="s">
         <v>4</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
       <c r="A23" s="37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A24" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A25" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A26" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A24" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A25" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
       <c r="A27" s="37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="56" t="s">
         <v>15</v>
-      </c>
-      <c r="B28" s="57" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="222" ht="12.75"/>
@@ -2449,8 +2478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2470,72 +2499,72 @@
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:3" ht="12.75">
       <c r="A3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75">
       <c r="A4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75">
       <c r="A5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75">
       <c r="A6" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75">
       <c r="A7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75">
       <c r="A8" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75">
       <c r="A9" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75">
       <c r="A10" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -2544,74 +2573,74 @@
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:3" ht="12.75">
       <c r="A13" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:3" ht="25.5">
       <c r="A14" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="91" t="s">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>104</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:3" ht="12.75">
-      <c r="A15" s="86"/>
-      <c r="B15" s="86"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:3" ht="12.75">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="89"/>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75">
+      <c r="A17" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75">
+      <c r="A18" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="1:6" ht="12.75">
-      <c r="A17" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="1:6" ht="12.75">
-      <c r="A18" s="89" t="s">
+      <c r="B18" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>53</v>
-      </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:6" ht="12.75">
-      <c r="A19" s="89" t="s">
-        <v>108</v>
+      <c r="A19" s="86" t="s">
+        <v>105</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A20" s="90" t="s">
-        <v>84</v>
+      <c r="A20" s="87" t="s">
+        <v>81</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C20" s="15"/>
     </row>
@@ -3469,128 +3498,128 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="65" t="s">
-        <v>65</v>
+      <c r="A2" s="64" t="s">
+        <v>64</v>
       </c>
       <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2" ht="61.5" customHeight="1">
       <c r="A3" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="54.75" customHeight="1">
+      <c r="A4" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B4" s="60" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="54.75" customHeight="1">
-      <c r="A4" s="60" t="s">
+    <row r="5" spans="1:2" ht="38.25">
+      <c r="A5" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="38.25">
-      <c r="A5" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>104</v>
+      <c r="B5" s="62" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="58"/>
+        <v>85</v>
+      </c>
+      <c r="B7" s="57"/>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>93</v>
+        <v>86</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>95</v>
+      <c r="A9" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="38.25">
-      <c r="A10" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>104</v>
+      <c r="A10" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="58"/>
+        <v>65</v>
+      </c>
+      <c r="B12" s="57"/>
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>94</v>
+        <v>69</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>95</v>
+      <c r="A14" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="38.25">
-      <c r="A15" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>104</v>
+      <c r="A15" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="58"/>
+        <v>94</v>
+      </c>
+      <c r="B17" s="57"/>
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="60" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>95</v>
-      </c>
-    </row>
     <row r="20" spans="1:2" ht="38.25">
-      <c r="A20" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>104</v>
+      <c r="A20" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3609,7 +3638,7 @@
   <dimension ref="B1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3623,121 +3652,121 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:4">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="D2" s="81" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="90.75" thickBot="1">
+      <c r="B3" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="82" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="90.75" thickBot="1">
-      <c r="B3" s="69" t="s">
+      <c r="C3" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="D3" s="82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="75.75" thickBot="1">
+      <c r="B4" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="75.75" thickBot="1">
-      <c r="B4" s="71" t="s">
+      <c r="C4" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="72" t="s">
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15" customHeight="1">
+      <c r="B6" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15">
+      <c r="B7" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="52.5" customHeight="1" thickBot="1">
+      <c r="B8" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="91"/>
+      <c r="D8" s="73" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="72" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="73" t="s">
+      <c r="C9" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="30.75" thickBot="1">
+      <c r="B10" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="C10" s="78" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="15" customHeight="1">
-      <c r="B6" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="76" t="s">
+      <c r="D10" s="76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="30">
+      <c r="B11" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="C11" s="78" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15">
-      <c r="B7" s="74" t="s">
+    <row r="12" spans="2:4" ht="15">
+      <c r="B12" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="74" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="52.5" customHeight="1" thickBot="1">
-      <c r="B8" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="74" t="s">
+      <c r="C12" s="79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" thickBot="1">
+      <c r="B13" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="80" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="30.75" thickBot="1">
-      <c r="B10" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="77" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="30">
-      <c r="B11" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="79" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15">
-      <c r="B12" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" thickBot="1">
-      <c r="B13" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="12.75">
